--- a/rosters/2023/Minnesota/Minnesota.xlsx
+++ b/rosters/2023/Minnesota/Minnesota.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -52,66 +52,66 @@
     <t>Jaylen Nowell</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Naz Reid</t>
+    <t>Kyle Anderson</t>
   </si>
   <si>
     <t>Austin Rivers</t>
   </si>
   <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
     <t>Taurean Prince</t>
   </si>
   <si>
-    <t>Bryn Forbes</t>
+    <t>Nathan Knight</t>
+  </si>
+  <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Luka Garza (TW)</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Nathan Knight</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Wendell Moore Jr.</t>
-  </si>
-  <si>
-    <t>Luka Garza (TW)</t>
-  </si>
-  <si>
     <t>Matt Ryan (TW)</t>
   </si>
   <si>
     <t>Josh Minott</t>
   </si>
   <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -124,106 +124,115 @@
     <t>6-7</t>
   </si>
   <si>
-    <t>6-2</t>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-5</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>5-11</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>August 5, 2001</t>
   </si>
   <si>
     <t>July 9, 1999</t>
   </si>
   <si>
-    <t>February 23, 1996</t>
-  </si>
-  <si>
     <t>September 29, 2000</t>
   </si>
   <si>
+    <t>August 26, 1999</t>
+  </si>
+  <si>
     <t>June 26, 1992</t>
   </si>
   <si>
-    <t>August 26, 1999</t>
+    <t>September 20, 1993</t>
   </si>
   <si>
     <t>August 1, 1992</t>
   </si>
   <si>
-    <t>September 20, 1993</t>
-  </si>
-  <si>
     <t>March 22, 1994</t>
   </si>
   <si>
-    <t>July 23, 1993</t>
+    <t>September 20, 1997</t>
+  </si>
+  <si>
+    <t>September 18, 2001</t>
+  </si>
+  <si>
+    <t>December 27, 1998</t>
+  </si>
+  <si>
+    <t>April 9, 1996</t>
   </si>
   <si>
     <t>November 15, 1995</t>
   </si>
   <si>
-    <t>September 20, 1997</t>
-  </si>
-  <si>
-    <t>April 9, 1996</t>
-  </si>
-  <si>
-    <t>September 18, 2001</t>
-  </si>
-  <si>
-    <t>December 27, 1998</t>
-  </si>
-  <si>
     <t>April 17, 1997</t>
   </si>
   <si>
     <t>November 25, 2002</t>
   </si>
   <si>
+    <t>October 11, 1987</t>
+  </si>
+  <si>
+    <t>September 2, 1998</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
     <t>fr</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>15</t>
   </si>
   <si>
     <t>Georgia</t>
@@ -232,40 +241,40 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Notre Dame, Vanderbilt, Chattanooga</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
     <t>Ohio State</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>William &amp; Mary</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Notre Dame, Vanderbilt, Chattanooga</t>
-  </si>
-  <si>
-    <t>Memphis</t>
+    <t>Virginia Tech</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/e/edwaran01.html</t>
@@ -274,49 +283,49 @@
     <t>https://www.basketball-reference.com/players/n/nowelja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcdanja02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/goberru01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
+    <t>https://www.basketball-reference.com/players/a/anderky01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/riverau01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/anderky01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/princta02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/forbebr01.html</t>
+    <t>https://www.basketball-reference.com/players/k/knighna01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/moorewe01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/garzalu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/townska01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/knighna01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/moorewe01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/garzalu01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/ryanma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/minotjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
   </si>
 </sst>
 </file>
@@ -745,19 +754,19 @@
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -780,19 +789,19 @@
         <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -809,25 +818,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -847,22 +856,22 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -876,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -885,16 +894,16 @@
         <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,34 +911,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -952,19 +961,19 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,34 +981,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,34 +1016,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1051,25 +1060,25 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1086,25 +1095,25 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,34 +1121,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1156,25 +1165,25 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,34 +1191,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1217,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1226,25 +1235,25 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
         <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1252,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1261,25 +1270,25 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1287,34 +1296,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Minnesota/Minnesota.xlsx
+++ b/rosters/2023/Minnesota/Minnesota.xlsx
@@ -73,15 +73,15 @@
     <t>Nathan Knight</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
     <t>Luka Garza (TW)</t>
   </si>
   <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>5-11</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>5-11</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>September 20, 1997</t>
   </si>
   <si>
+    <t>April 9, 1996</t>
+  </si>
+  <si>
     <t>September 18, 2001</t>
   </si>
   <si>
     <t>December 27, 1998</t>
   </si>
   <si>
-    <t>April 9, 1996</t>
-  </si>
-  <si>
     <t>November 15, 1995</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>William &amp; Mary</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -304,13 +304,13 @@
     <t>https://www.basketball-reference.com/players/k/knighna01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/moorewe01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/garzalu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/townska01.html</t>
@@ -1051,19 +1051,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1072,10 +1072,10 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>96</v>
@@ -1086,19 +1086,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
@@ -1107,10 +1107,10 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>97</v>
@@ -1121,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -1142,7 +1142,7 @@
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
         <v>81</v>
@@ -1165,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>248</v>

--- a/rosters/2023/Minnesota/Minnesota.xlsx
+++ b/rosters/2023/Minnesota/Minnesota.xlsx
@@ -49,12 +49,12 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
     <t>Naz Reid</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>August 5, 2001</t>
   </si>
   <si>
+    <t>September 29, 2000</t>
+  </si>
+  <si>
     <t>July 9, 1999</t>
   </si>
   <si>
-    <t>September 29, 2000</t>
-  </si>
-  <si>
     <t>August 26, 1999</t>
   </si>
   <si>
@@ -280,10 +280,10 @@
     <t>https://www.basketball-reference.com/players/e/edwaran01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mcdanja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nowelja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcdanja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
@@ -774,19 +774,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -795,7 +795,7 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
@@ -809,19 +809,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -830,7 +830,7 @@
         <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
         <v>74</v>

--- a/rosters/2023/Minnesota/Minnesota.xlsx
+++ b/rosters/2023/Minnesota/Minnesota.xlsx
@@ -52,12 +52,12 @@
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>Taurean Prince</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
     <t>Nathan Knight</t>
   </si>
   <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
@@ -88,27 +88,27 @@
     <t>Matt Ryan (TW)</t>
   </si>
   <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
     <t>Josh Minott</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Nickeil Alexander-Walker</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -124,39 +124,39 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>5-11</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>5-11</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>August 5, 2001</t>
   </si>
   <si>
     <t>September 29, 2000</t>
   </si>
   <si>
+    <t>August 26, 1999</t>
+  </si>
+  <si>
     <t>July 9, 1999</t>
   </si>
   <si>
-    <t>August 26, 1999</t>
-  </si>
-  <si>
     <t>June 26, 1992</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>March 22, 1994</t>
   </si>
   <si>
+    <t>April 9, 1996</t>
+  </si>
+  <si>
     <t>September 20, 1997</t>
   </si>
   <si>
-    <t>April 9, 1996</t>
-  </si>
-  <si>
     <t>September 18, 2001</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>April 17, 1997</t>
   </si>
   <si>
+    <t>October 11, 1987</t>
+  </si>
+  <si>
+    <t>September 2, 1998</t>
+  </si>
+  <si>
     <t>November 25, 2002</t>
   </si>
   <si>
-    <t>October 11, 1987</t>
-  </si>
-  <si>
-    <t>September 2, 1998</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>Baylor</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>William &amp; Mary</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -268,27 +268,27 @@
     <t>Notre Dame, Vanderbilt, Chattanooga</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/e/edwaran01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mcdanja02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nowelja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/goberru01.html</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>https://www.basketball-reference.com/players/p/princta02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/knighna01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/moorewe01.html</t>
   </si>
   <si>
@@ -319,13 +319,13 @@
     <t>https://www.basketball-reference.com/players/r/ryanma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/minotjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
   </si>
 </sst>
 </file>
@@ -809,19 +809,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -833,7 +833,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>89</v>
@@ -844,19 +844,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>90</v>
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1016,19 +1016,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -1051,19 +1051,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1072,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -1162,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -1226,19 +1226,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -1247,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
@@ -1261,28 +1261,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
       <c r="F17">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
         <v>85</v>
@@ -1296,13 +1296,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
@@ -1314,10 +1314,10 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>

--- a/rosters/2023/Minnesota/Minnesota.xlsx
+++ b/rosters/2023/Minnesota/Minnesota.xlsx
@@ -52,48 +52,48 @@
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
     <t>Naz Reid</t>
   </si>
   <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
+    <t>Taurean Prince</t>
   </si>
   <si>
     <t>Austin Rivers</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
     <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Nathan Knight</t>
   </si>
   <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
     <t>Luka Garza (TW)</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
   </si>
   <si>
     <t>Matt Ryan (TW)</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Nickeil Alexander-Walker</t>
-  </si>
-  <si>
     <t>Josh Minott</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -151,48 +151,48 @@
     <t>September 29, 2000</t>
   </si>
   <si>
+    <t>June 26, 1992</t>
+  </si>
+  <si>
+    <t>September 20, 1993</t>
+  </si>
+  <si>
     <t>August 26, 1999</t>
   </si>
   <si>
     <t>July 9, 1999</t>
   </si>
   <si>
-    <t>June 26, 1992</t>
-  </si>
-  <si>
-    <t>September 20, 1993</t>
+    <t>March 22, 1994</t>
   </si>
   <si>
     <t>August 1, 1992</t>
   </si>
   <si>
-    <t>March 22, 1994</t>
-  </si>
-  <si>
     <t>April 9, 1996</t>
   </si>
   <si>
     <t>September 20, 1997</t>
   </si>
   <si>
+    <t>November 15, 1995</t>
+  </si>
+  <si>
     <t>September 18, 2001</t>
   </si>
   <si>
     <t>December 27, 1998</t>
   </si>
   <si>
-    <t>November 15, 1995</t>
+    <t>October 11, 1987</t>
+  </si>
+  <si>
+    <t>September 2, 1998</t>
   </si>
   <si>
     <t>April 17, 1997</t>
   </si>
   <si>
-    <t>October 11, 1987</t>
-  </si>
-  <si>
-    <t>September 2, 1998</t>
-  </si>
-  <si>
     <t>November 25, 2002</t>
   </si>
   <si>
@@ -208,19 +208,22 @@
     <t>2</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>6</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>R</t>
@@ -229,9 +232,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -241,39 +241,39 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>Baylor</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
     <t>William &amp; Mary</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>Kentucky</t>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
   </si>
   <si>
     <t>Notre Dame, Vanderbilt, Chattanooga</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
@@ -283,46 +283,46 @@
     <t>https://www.basketball-reference.com/players/m/mcdanja02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/goberru01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/anderky01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/reidna01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/nowelja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/goberru01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/anderky01.html</t>
+    <t>https://www.basketball-reference.com/players/p/princta02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/riverau01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/princta02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mclaujo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/knighna01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/townska01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/moorewe01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/garzalu01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/townska01.html</t>
+    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/ryanma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/minotjo01.html</t>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -818,22 +818,19 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>89</v>
@@ -844,19 +841,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -865,10 +862,10 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>90</v>
@@ -879,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -888,19 +885,22 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>91</v>
@@ -911,19 +911,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -935,7 +935,7 @@
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>92</v>
@@ -946,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -981,19 +981,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1037,7 +1037,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -1086,19 +1086,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
@@ -1110,7 +1110,7 @@
         <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>97</v>
@@ -1121,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -1145,7 +1145,7 @@
         <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>98</v>
@@ -1156,19 +1156,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -1191,19 +1191,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
@@ -1226,28 +1226,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
@@ -1261,28 +1261,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
         <v>85</v>
@@ -1317,7 +1317,7 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
